--- a/spliced/walkingToRunning/2023-03-30_14-28-27/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-28-27/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5741065289701482</v>
+        <v>-1.428148408217626</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.503226176839088</v>
+        <v>1.415199639612464</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.719519167368706</v>
+        <v>1.873757413392585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9217050730962066</v>
+        <v>-0.3362366334978593</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2292654945401817</v>
+        <v>0.3509886704687749</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.401101356942718</v>
+        <v>0.4294003237217614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.19596545062822</v>
+        <v>1.29839596625184</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2426663118644866</v>
+        <v>0.07410049284516276</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.187804716979447</v>
+        <v>-0.7659658990882879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9760257120062067</v>
+        <v>1.272031672326387</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1424154897952448</v>
+        <v>-1.028642801671032</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8590546718822623</v>
+        <v>-0.5943050091996711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3539368301300073</v>
+        <v>0.3833239707559676</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2236679532871066</v>
+        <v>-2.850368825271993</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.08171037576295181</v>
+        <v>-0.3757410840134667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.62912566723419</v>
+        <v>0.4730243273766702</v>
       </c>
       <c r="B7" t="n">
-        <v>1.116381197617942</v>
+        <v>-4.100493916726186</v>
       </c>
       <c r="C7" t="n">
-        <v>1.465065406477321</v>
+        <v>-1.476941543751531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.661672166352781</v>
+        <v>0.5741065289701482</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5886271724621748</v>
+        <v>-2.503226176839088</v>
       </c>
       <c r="C8" t="n">
-        <v>3.194017144586767</v>
+        <v>-1.719519167368706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.62152429700339</v>
+        <v>0.9217050730962066</v>
       </c>
       <c r="B9" t="n">
-        <v>2.452606123751813</v>
+        <v>0.2292654945401817</v>
       </c>
       <c r="C9" t="n">
-        <v>2.296193793690959</v>
+        <v>-1.401101356942718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.544737715562746</v>
+        <v>1.19596545062822</v>
       </c>
       <c r="B10" t="n">
-        <v>2.399413680678499</v>
+        <v>-0.2426663118644866</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8650669424736119</v>
+        <v>-1.187804716979447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.244821196552569</v>
+        <v>0.9760257120062067</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.53188033121541</v>
+        <v>-0.1424154897952448</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9414239910695861</v>
+        <v>-0.8590546718822623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.651211643570909</v>
+        <v>0.3539368301300073</v>
       </c>
       <c r="B12" t="n">
-        <v>2.098859643144377</v>
+        <v>0.2236679532871066</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.957986710256305</v>
+        <v>-0.08171037576295181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.55922644780575</v>
+        <v>-1.62912566723419</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8341632472193089</v>
+        <v>1.116381197617942</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.370352138012565</v>
+        <v>1.465065406477321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.001311344414123</v>
+        <v>-4.661672166352781</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.33526933457129</v>
+        <v>0.5886271724621748</v>
       </c>
       <c r="C14" t="n">
-        <v>2.328884744116308</v>
+        <v>3.194017144586767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-9.313379083612446</v>
+        <v>-4.62152429700339</v>
       </c>
       <c r="B15" t="n">
-        <v>-15.71127955588033</v>
+        <v>2.452606123751813</v>
       </c>
       <c r="C15" t="n">
-        <v>2.31600133739272</v>
+        <v>2.296193793690959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.349856077525013</v>
+        <v>2.544737715562746</v>
       </c>
       <c r="B16" t="n">
-        <v>-9.149664600836861</v>
+        <v>2.399413680678499</v>
       </c>
       <c r="C16" t="n">
-        <v>4.022751534557007</v>
+        <v>-0.8650669424736119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.662202395196333</v>
+        <v>4.244821196552569</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.257402020626782</v>
+        <v>-2.53188033121541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9362263946735492</v>
+        <v>-0.9414239910695861</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.284184457631085</v>
+        <v>4.651211643570909</v>
       </c>
       <c r="B18" t="n">
-        <v>3.942425561567058</v>
+        <v>2.098859643144377</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4433726047567848</v>
+        <v>-0.957986710256305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.787294496909284</v>
+        <v>1.55922644780575</v>
       </c>
       <c r="B19" t="n">
-        <v>1.309673618566504</v>
+        <v>-0.8341632472193089</v>
       </c>
       <c r="C19" t="n">
-        <v>1.816239040716114</v>
+        <v>-1.370352138012565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.766657801131926</v>
+        <v>-7.001311344414123</v>
       </c>
       <c r="B20" t="n">
-        <v>2.415746399837134</v>
+        <v>-5.33526933457129</v>
       </c>
       <c r="C20" t="n">
-        <v>2.136085600870617</v>
+        <v>2.328884744116308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-9.313379083612446</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-15.71127955588033</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.31600133739272</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.349856077525013</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-9.149664600836861</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.022751534557007</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4.662202395196333</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.257402020626782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9362263946735492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.284184457631085</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.942425561567058</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4433726047567848</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.787294496909284</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.309673618566504</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.816239040716114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-4.766657801131926</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.415746399837134</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.136085600870617</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-3.364129057669638</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>9.653811729262191</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>-2.774162345706682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.691667430955088</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.822626233541001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.046651205013665</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4.03936266899109</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.018842667231255</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.086610792307836</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.831653899372287</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.543843676683208</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.997865703273085</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.046866848899856</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7223788134726359</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.788422576615722</v>
       </c>
     </row>
   </sheetData>
